--- a/TF_UI_API_Intg_status.xlsx
+++ b/TF_UI_API_Intg_status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ntsrv\common\Strategic Solutions\Designs &amp; Specs\TF New Arch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ntsrv\common\Strategic Solutions\Designs &amp; Specs\TF-New-Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702458F0-D441-4526-A068-EB6DD8F0C721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA727A3E-DCE0-495D-A02F-2B84AFB9820A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="175">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -577,6 +577,15 @@
   </si>
   <si>
     <t>/GarnishmentService/getGarnishmentGroup</t>
+  </si>
+  <si>
+    <t>/GarnishmentService/getGarnishmentGroupUsage</t>
+  </si>
+  <si>
+    <t>/GarnishmentService/deleteGarnishmentGroup</t>
+  </si>
+  <si>
+    <t>/GarnishmentService/saveGarnishmentGroup</t>
   </si>
 </sst>
 </file>
@@ -2049,7 +2058,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,6 +2399,30 @@
         <v>171</v>
       </c>
       <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" t="s">
+        <v>174</v>
+      </c>
+      <c r="M9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" t="s">
         <v>66</v>
       </c>
     </row>

--- a/TF_UI_API_Intg_status.xlsx
+++ b/TF_UI_API_Intg_status.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ntsrv\common\Strategic Solutions\Designs &amp; Specs\TF-New-Architecture\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA727A3E-DCE0-495D-A02F-2B84AFB9820A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
     <sheet name="UDQ Filters" sheetId="3" r:id="rId2"/>
     <sheet name="UDQ" sheetId="1" r:id="rId3"/>
+    <sheet name="Type 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="195">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -238,9 +233,6 @@
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Form Ready with Select APIS?</t>
   </si>
   <si>
     <t>Get URL Ready?</t>
@@ -587,12 +579,75 @@
   <si>
     <t>/GarnishmentService/saveGarnishmentGroup</t>
   </si>
+  <si>
+    <t>/EmployeeService/deleteEmployeeGroup</t>
+  </si>
+  <si>
+    <t>/EmployeeService/getEmployeeGroupList</t>
+  </si>
+  <si>
+    <t>/EmployeeService/getEmployeeGroup</t>
+  </si>
+  <si>
+    <t>/EmployeeService/getEmployeeGroupUsage</t>
+  </si>
+  <si>
+    <t>/EmployeeService/saveEmployeeGroup</t>
+  </si>
+  <si>
+    <t>Autocomplete pageIds</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getTaxEffectiveDateOverrides</t>
+  </si>
+  <si>
+    <t>bsiAuth, taxRecords</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getTaxEffectiveDateOverride</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/deleteTaxEffectiveDateOverride</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/saveTaxEffectiveDateOverride</t>
+  </si>
+  <si>
+    <t>Custom Formulas</t>
+  </si>
+  <si>
+    <t>Worksites</t>
+  </si>
+  <si>
+    <t>Unemployment Overrides</t>
+  </si>
+  <si>
+    <t>Payment Overrides</t>
+  </si>
+  <si>
+    <t>Reciprocal Overrides</t>
+  </si>
+  <si>
+    <t>Optional Rate Overrides</t>
+  </si>
+  <si>
+    <t>Custom Tax Payment Overrides</t>
+  </si>
+  <si>
+    <t>Custom Payment Exceptions</t>
+  </si>
+  <si>
+    <t>Custom Nexus Data</t>
+  </si>
+  <si>
+    <t>Custom Garnishment Formulas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,7 +921,247 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1671,64 +1966,92 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A1:P13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A1:P13"/>
+  <sortState ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Link Description"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Page Id" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Form Ready with Select APIS?" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Get Prod URL" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Get URL Ready?"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Edit Entity"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Edit  URL Ready"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Get Usage URL"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Get Usage Ready"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delete URL"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Delete Ready?"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Save/Update URL"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Save/Update Ready?"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="View PDF?"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="All APIs ready?"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Testing?" dataDxfId="23"/>
+    <tableColumn id="1" name="Link Description"/>
+    <tableColumn id="2" name="Page Id" dataDxfId="35"/>
+    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="34"/>
+    <tableColumn id="4" name="Get Prod URL" dataDxfId="33"/>
+    <tableColumn id="11" name="Get URL Ready?"/>
+    <tableColumn id="5" name="Edit Entity"/>
+    <tableColumn id="16" name="Edit  URL Ready"/>
+    <tableColumn id="17" name="Get Usage URL"/>
+    <tableColumn id="18" name="Get Usage Ready"/>
+    <tableColumn id="9" name="Delete URL"/>
+    <tableColumn id="13" name="Delete Ready?"/>
+    <tableColumn id="8" name="Save/Update URL"/>
+    <tableColumn id="7" name="Save/Update Ready?"/>
+    <tableColumn id="10" name="View PDF?"/>
+    <tableColumn id="12" name="All APIs ready?"/>
+    <tableColumn id="6" name="Testing?" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="A1:H23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A1:H23"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Field Description" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Prod URL" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Is Autocomplete?" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Dev Done?" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="In Sync With UI?" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Screens" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Dev By" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Note" dataDxfId="10"/>
+    <tableColumn id="1" name="Field Description" dataDxfId="26"/>
+    <tableColumn id="2" name="Prod URL" dataDxfId="25"/>
+    <tableColumn id="3" name="Is Autocomplete?" dataDxfId="24"/>
+    <tableColumn id="4" name="Dev Done?" dataDxfId="23"/>
+    <tableColumn id="5" name="In Sync With UI?" dataDxfId="22"/>
+    <tableColumn id="6" name="Screens" dataDxfId="21"/>
+    <tableColumn id="7" name="Dev By" dataDxfId="20"/>
+    <tableColumn id="9" name="Note" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:G35"/>
+  <sortState ref="A2:G35">
     <sortCondition descending="1" ref="F1:F35"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Link Description" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Filter" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Prod URL" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Dev Done?" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="UI Sync/Ingt" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Testing?" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dev By" dataDxfId="0"/>
+    <tableColumn id="1" name="Link Description" dataDxfId="15"/>
+    <tableColumn id="3" name="Filter" dataDxfId="14"/>
+    <tableColumn id="4" name="Prod URL" dataDxfId="13"/>
+    <tableColumn id="6" name="Dev Done?" dataDxfId="12"/>
+    <tableColumn id="2" name="UI Sync/Ingt" dataDxfId="11"/>
+    <tableColumn id="7" name="Testing?" dataDxfId="10"/>
+    <tableColumn id="5" name="Dev By" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:P13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:P13"/>
+  <sortState ref="A2:J13">
+    <sortCondition ref="A1:A13"/>
+  </sortState>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Link Description"/>
+    <tableColumn id="2" name="Page Id" dataDxfId="3"/>
+    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="2"/>
+    <tableColumn id="4" name="Get Prod URL" dataDxfId="1"/>
+    <tableColumn id="11" name="Get URL Ready?"/>
+    <tableColumn id="5" name="Edit Entity"/>
+    <tableColumn id="16" name="Edit  URL Ready"/>
+    <tableColumn id="17" name="Get Usage URL"/>
+    <tableColumn id="18" name="Get Usage Ready"/>
+    <tableColumn id="9" name="Delete URL"/>
+    <tableColumn id="13" name="Delete Ready?"/>
+    <tableColumn id="8" name="Save/Update URL"/>
+    <tableColumn id="7" name="Save/Update Ready?"/>
+    <tableColumn id="10" name="View PDF?"/>
+    <tableColumn id="12" name="All APIs ready?"/>
+    <tableColumn id="6" name="Testing?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1777,7 +2100,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1810,26 +2133,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1862,23 +2168,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2054,34 +2343,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="52.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="45.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.5703125" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="52.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="45.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.5546875" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -2089,49 +2378,49 @@
         <v>35</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>67</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>68</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>70</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -2139,7 +2428,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2150,31 +2439,31 @@
         <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
         <v>66</v>
       </c>
       <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
         <v>151</v>
       </c>
-      <c r="G3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
         <v>152</v>
       </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
-        <v>153</v>
-      </c>
       <c r="K3" t="s">
         <v>66</v>
       </c>
       <c r="L3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M3" t="s">
         <v>66</v>
@@ -2186,7 +2475,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2197,31 +2486,31 @@
         <v>71</v>
       </c>
       <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
         <v>158</v>
       </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
         <v>159</v>
       </c>
-      <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
         <v>160</v>
       </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
         <v>161</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>162</v>
       </c>
       <c r="M4" t="s">
         <v>66</v>
@@ -2233,7 +2522,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2250,25 +2539,25 @@
         <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
         <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" t="s">
         <v>66</v>
       </c>
       <c r="J5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
         <v>155</v>
-      </c>
-      <c r="K5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" t="s">
-        <v>156</v>
       </c>
       <c r="M5" t="s">
         <v>66</v>
@@ -2280,7 +2569,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -2297,25 +2586,25 @@
         <v>66</v>
       </c>
       <c r="F6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
         <v>149</v>
       </c>
-      <c r="G6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" t="s">
-        <v>150</v>
-      </c>
       <c r="I6" t="s">
         <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
         <v>66</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
         <v>66</v>
@@ -2327,24 +2616,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
       </c>
       <c r="D7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
         <v>166</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" t="s">
-        <v>167</v>
       </c>
       <c r="G7" t="s">
         <v>66</v>
@@ -2352,14 +2641,17 @@
       <c r="H7" t="s">
         <v>71</v>
       </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
       <c r="J7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
         <v>168</v>
-      </c>
-      <c r="K7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" t="s">
         <v>66</v>
@@ -2371,15 +2663,54 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>178</v>
+      </c>
+      <c r="M8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2390,31 +2721,31 @@
         <v>71</v>
       </c>
       <c r="D9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
         <v>170</v>
       </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
         <v>171</v>
       </c>
-      <c r="G9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
         <v>172</v>
       </c>
-      <c r="I9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" t="s">
         <v>173</v>
-      </c>
-      <c r="K9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" t="s">
-        <v>174</v>
       </c>
       <c r="M9" t="s">
         <v>66</v>
@@ -2426,12 +2757,51 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2445,81 +2815,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="86.4">
+      <c r="A2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="B2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>90</v>
-      </c>
       <c r="B3" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>42</v>
@@ -2529,19 +2899,19 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="115.2">
       <c r="A4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>42</v>
@@ -2553,19 +2923,19 @@
         <v>42</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>42</v>
@@ -2580,12 +2950,12 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>42</v>
@@ -2597,19 +2967,19 @@
         <v>44</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="43.2">
       <c r="A7" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>42</v>
@@ -2621,45 +2991,45 @@
         <v>44</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>103</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>104</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>42</v>
@@ -2671,17 +3041,17 @@
         <v>44</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.8">
       <c r="A10" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>42</v>
@@ -2693,19 +3063,19 @@
         <v>44</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>42</v>
@@ -2717,16 +3087,16 @@
         <v>44</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27" t="s">
@@ -2739,17 +3109,17 @@
         <v>44</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.8">
       <c r="A13" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>111</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>112</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>42</v>
@@ -2761,17 +3131,17 @@
         <v>44</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>114</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>115</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>42</v>
@@ -2783,39 +3153,39 @@
         <v>44</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="43.2">
       <c r="A15" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>125</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>126</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.8">
       <c r="A16" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>42</v>
@@ -2827,17 +3197,17 @@
         <v>44</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>42</v>
@@ -2849,17 +3219,17 @@
         <v>44</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="100.8">
       <c r="A18" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>42</v>
@@ -2871,17 +3241,17 @@
         <v>44</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>42</v>
@@ -2893,16 +3263,16 @@
         <v>44</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23" t="s">
@@ -2915,16 +3285,16 @@
         <v>44</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27" t="s">
@@ -2937,17 +3307,17 @@
         <v>44</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="43.2">
       <c r="A22" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>42</v>
@@ -2959,17 +3329,17 @@
         <v>44</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>42</v>
@@ -2981,7 +3351,7 @@
         <v>44</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -2996,25 +3366,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -3028,16 +3398,16 @@
         <v>38</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -3052,13 +3422,13 @@
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -3076,10 +3446,10 @@
         <v>48</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3097,10 +3467,10 @@
         <v>48</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -3118,10 +3488,10 @@
         <v>48</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -3139,10 +3509,10 @@
         <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
@@ -3160,10 +3530,10 @@
         <v>50</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="35" t="s">
         <v>21</v>
       </c>
@@ -3181,10 +3551,10 @@
         <v>50</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -3202,10 +3572,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3223,10 +3593,10 @@
         <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -3244,10 +3614,10 @@
         <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3265,10 +3635,10 @@
         <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -3286,10 +3656,10 @@
         <v>50</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -3307,10 +3677,10 @@
         <v>50</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -3328,10 +3698,10 @@
         <v>50</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -3349,10 +3719,10 @@
         <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
@@ -3370,10 +3740,10 @@
         <v>50</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -3391,10 +3761,10 @@
         <v>50</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -3412,10 +3782,10 @@
         <v>50</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -3433,10 +3803,10 @@
         <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -3454,10 +3824,10 @@
         <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -3475,10 +3845,10 @@
         <v>50</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -3496,10 +3866,10 @@
         <v>50</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="33" t="s">
         <v>1</v>
       </c>
@@ -3517,10 +3887,10 @@
         <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -3538,10 +3908,10 @@
         <v>50</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -3559,10 +3929,10 @@
         <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -3580,10 +3950,10 @@
         <v>50</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="29" t="s">
         <v>8</v>
       </c>
@@ -3598,13 +3968,13 @@
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -3622,10 +3992,10 @@
         <v>47</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -3643,10 +4013,10 @@
         <v>46</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -3664,10 +4034,10 @@
         <v>46</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -3685,10 +4055,10 @@
         <v>46</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -3703,13 +4073,13 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="29" t="s">
         <v>23</v>
       </c>
@@ -3724,13 +4094,13 @@
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -3748,13 +4118,13 @@
         <v>49</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes"/>
+    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3762,4 +4132,145 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="52.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="45.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.5546875" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/TF_UI_API_Intg_status.xlsx
+++ b/TF_UI_API_Intg_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="213">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -641,6 +641,60 @@
   </si>
   <si>
     <t>Custom Garnishment Formulas</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>/UserProfileService/saveLogin</t>
+  </si>
+  <si>
+    <t>/UserProfileService/deleteLogin</t>
+  </si>
+  <si>
+    <t>/UserProfileService/getLogin</t>
+  </si>
+  <si>
+    <t>/UserProfileService/getLoginList</t>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>permission</t>
+  </si>
+  <si>
+    <t>/UserProfileService/getPermissionList</t>
+  </si>
+  <si>
+    <t>customTaxFormulas</t>
+  </si>
+  <si>
+    <t>/TaxCodeResource/getCustomFormulaList</t>
+  </si>
+  <si>
+    <t>/TaxCodeResource/deleteCustomFormula</t>
+  </si>
+  <si>
+    <t>/TaxCodeResource/saveCustomFormula</t>
+  </si>
+  <si>
+    <t>/TaxCodeResource/getCustomFormula</t>
+  </si>
+  <si>
+    <t>worksiteCompanies</t>
+  </si>
+  <si>
+    <t>/CompanyResource/deleteWksiteMgmtLocation</t>
+  </si>
+  <si>
+    <t>/CompanyResource/getWorksiteManagementLocationList</t>
+  </si>
+  <si>
+    <t>/CompanyResource/saveWksiteMgmtLocation</t>
   </si>
 </sst>
 </file>
@@ -697,7 +751,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -713,6 +767,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,7 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -916,6 +976,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1085,13 +1147,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1128,6 +1183,13 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2030,7 +2092,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:P13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:P13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:P13"/>
   <sortState ref="A2:J13">
     <sortCondition ref="A1:A13"/>
@@ -2344,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2429,192 +2491,196 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" t="s">
+      <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="G3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I3" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K3" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="M3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="M3" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="O3" t="s">
-        <v>66</v>
-      </c>
+      <c r="O3" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" t="s">
+      <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K4" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="M4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="M4" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="O4" t="s">
-        <v>66</v>
-      </c>
+      <c r="O4" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" t="s">
+      <c r="A5" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="I5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I5" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="K5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="K5" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="M5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="M5" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="O5" t="s">
-        <v>66</v>
-      </c>
+      <c r="O5" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" t="s">
+      <c r="A6" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="G6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="I6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I6" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="K6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="K6" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="M6" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="O6" t="s">
-        <v>66</v>
-      </c>
+      <c r="O6" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="40"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
@@ -2664,98 +2730,100 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" t="s">
+      <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I8" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="K8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K8" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="M8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="M8" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="O8" t="s">
-        <v>66</v>
-      </c>
+      <c r="O8" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="40"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" t="s">
+      <c r="A9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="G9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="I9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="I9" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="K9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="K9" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="M9" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="M9" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="O9" t="s">
-        <v>66</v>
-      </c>
+      <c r="O9" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="41"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
@@ -2802,6 +2870,67 @@
       </c>
       <c r="O10" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>197</v>
+      </c>
+      <c r="M11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2834,7 +2963,7 @@
     <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="12" t="s">
         <v>95</v>
       </c>
@@ -2930,7 +3059,7 @@
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8">
       <c r="A5" s="17" t="s">
         <v>85</v>
       </c>
@@ -4138,24 +4267,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="48.5546875" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="52.44140625" customWidth="1"/>
+    <col min="8" max="8" width="36.21875" customWidth="1"/>
     <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="45.6640625" customWidth="1"/>
+    <col min="10" max="10" width="40.5546875" customWidth="1"/>
     <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.5546875" customWidth="1"/>
+    <col min="12" max="12" width="38.88671875" customWidth="1"/>
     <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -4216,10 +4345,82 @@
       <c r="A2" t="s">
         <v>185</v>
       </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:16">

--- a/TF_UI_API_Intg_status.xlsx
+++ b/TF_UI_API_Intg_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="215">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -695,6 +695,12 @@
   </si>
   <si>
     <t>/CompanyResource/saveWksiteMgmtLocation</t>
+  </si>
+  <si>
+    <t>Get Prod URL - child grid2</t>
+  </si>
+  <si>
+    <t>Get Prod URL - parent grid</t>
   </si>
 </sst>
 </file>
@@ -2092,16 +2098,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:P13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:P13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:Q13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:Q13"/>
   <sortState ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
-  <tableColumns count="16">
+  <tableColumns count="17">
     <tableColumn id="1" name="Link Description"/>
     <tableColumn id="2" name="Page Id" dataDxfId="3"/>
     <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="2"/>
-    <tableColumn id="4" name="Get Prod URL" dataDxfId="1"/>
+    <tableColumn id="14" name="Get Prod URL - parent grid"/>
+    <tableColumn id="4" name="Get Prod URL - child grid2" dataDxfId="1"/>
     <tableColumn id="11" name="Get URL Ready?"/>
     <tableColumn id="5" name="Edit Entity"/>
     <tableColumn id="16" name="Edit  URL Ready"/>
@@ -2408,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -4265,10 +4272,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4276,22 +4283,23 @@
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.21875" customWidth="1"/>
     <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="48.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="36.21875" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="40.5546875" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.88671875" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="36.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="40.5546875" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.88671875" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -4302,46 +4310,49 @@
         <v>179</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -4352,37 +4363,40 @@
         <v>71</v>
       </c>
       <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
         <v>205</v>
       </c>
-      <c r="E2" t="s">
-        <v>66</v>
-      </c>
       <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
         <v>208</v>
       </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
         <v>71</v>
       </c>
       <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
         <v>206</v>
       </c>
-      <c r="K2" t="s">
-        <v>66</v>
-      </c>
       <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
         <v>207</v>
       </c>
-      <c r="M2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -4392,14 +4406,11 @@
       <c r="C3" t="s">
         <v>66</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>211</v>
       </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
         <v>71</v>
@@ -4411,59 +4422,62 @@
         <v>71</v>
       </c>
       <c r="J3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" t="s">
         <v>210</v>
       </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
       <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
         <v>212</v>
       </c>
-      <c r="M3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>194</v>
       </c>

--- a/TF_UI_API_Intg_status.xlsx
+++ b/TF_UI_API_Intg_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="217">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -701,6 +701,12 @@
   </si>
   <si>
     <t>Get Prod URL - parent grid</t>
+  </si>
+  <si>
+    <t>Garnishment Formula Overrides</t>
+  </si>
+  <si>
+    <t>Group Overrides</t>
   </si>
 </sst>
 </file>
@@ -757,7 +763,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,6 +786,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -907,7 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -984,6 +996,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2098,8 +2112,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:Q13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:Q13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:Q14"/>
   <sortState ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
@@ -2415,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2785,99 +2799,100 @@
       <c r="P8" s="40"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="41" t="s">
+      <c r="E9" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="41" t="s">
+      <c r="G9" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="I9" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="41" t="s">
+      <c r="I9" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="K9" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="41" t="s">
+      <c r="K9" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="M9" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="41" t="s">
+      <c r="M9" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="41"/>
+      <c r="O9" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" t="s">
+      <c r="A10" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="E10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="G10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="K10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="M10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="M10" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="O10" t="s">
-        <v>66</v>
-      </c>
+      <c r="O10" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="41"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
@@ -4272,10 +4287,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4406,6 +4421,9 @@
       <c r="C3" t="s">
         <v>66</v>
       </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
       <c r="E3" t="s">
         <v>211</v>
       </c>
@@ -4482,10 +4500,37 @@
         <v>194</v>
       </c>
     </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="43"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/TF_UI_API_Intg_status.xlsx
+++ b/TF_UI_API_Intg_status.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646F3932-2504-485F-A9E6-51E49E9A0B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="4155" yWindow="3120" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -667,9 +673,6 @@
     <t>permission</t>
   </si>
   <si>
-    <t>/UserProfileService/getPermissionList</t>
-  </si>
-  <si>
     <t>customTaxFormulas</t>
   </si>
   <si>
@@ -707,13 +710,16 @@
   </si>
   <si>
     <t>Group Overrides</t>
+  </si>
+  <si>
+    <t>/UserProfileService/getPermissionListtt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2048,93 +2054,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
-  <autoFilter ref="A1:P13"/>
-  <sortState ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A1:P13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="Link Description"/>
-    <tableColumn id="2" name="Page Id" dataDxfId="35"/>
-    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="34"/>
-    <tableColumn id="4" name="Get Prod URL" dataDxfId="33"/>
-    <tableColumn id="11" name="Get URL Ready?"/>
-    <tableColumn id="5" name="Edit Entity"/>
-    <tableColumn id="16" name="Edit  URL Ready"/>
-    <tableColumn id="17" name="Get Usage URL"/>
-    <tableColumn id="18" name="Get Usage Ready"/>
-    <tableColumn id="9" name="Delete URL"/>
-    <tableColumn id="13" name="Delete Ready?"/>
-    <tableColumn id="8" name="Save/Update URL"/>
-    <tableColumn id="7" name="Save/Update Ready?"/>
-    <tableColumn id="10" name="View PDF?"/>
-    <tableColumn id="12" name="All APIs ready?"/>
-    <tableColumn id="6" name="Testing?" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Link Description"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Page Id" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Autocomplete pageIds" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Get Prod URL" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Get URL Ready?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Edit Entity"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Edit  URL Ready"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Get Usage URL"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Get Usage Ready"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delete URL"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Delete Ready?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Save/Update URL"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Save/Update Ready?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="View PDF?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="All APIs ready?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Testing?" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A1:H23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A1:H23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Field Description" dataDxfId="26"/>
-    <tableColumn id="2" name="Prod URL" dataDxfId="25"/>
-    <tableColumn id="3" name="Is Autocomplete?" dataDxfId="24"/>
-    <tableColumn id="4" name="Dev Done?" dataDxfId="23"/>
-    <tableColumn id="5" name="In Sync With UI?" dataDxfId="22"/>
-    <tableColumn id="6" name="Screens" dataDxfId="21"/>
-    <tableColumn id="7" name="Dev By" dataDxfId="20"/>
-    <tableColumn id="9" name="Note" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Field Description" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Prod URL" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Is Autocomplete?" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Dev Done?" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="In Sync With UI?" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Screens" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Dev By" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Note" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:G35"/>
-  <sortState ref="A2:G35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
     <sortCondition descending="1" ref="F1:F35"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Link Description" dataDxfId="15"/>
-    <tableColumn id="3" name="Filter" dataDxfId="14"/>
-    <tableColumn id="4" name="Prod URL" dataDxfId="13"/>
-    <tableColumn id="6" name="Dev Done?" dataDxfId="12"/>
-    <tableColumn id="2" name="UI Sync/Ingt" dataDxfId="11"/>
-    <tableColumn id="7" name="Testing?" dataDxfId="10"/>
-    <tableColumn id="5" name="Dev By" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Link Description" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Filter" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Prod URL" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Dev Done?" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="UI Sync/Ingt" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Testing?" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dev By" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:Q14"/>
-  <sortState ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:Q14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Link Description"/>
-    <tableColumn id="2" name="Page Id" dataDxfId="3"/>
-    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="2"/>
-    <tableColumn id="14" name="Get Prod URL - parent grid"/>
-    <tableColumn id="4" name="Get Prod URL - child grid2" dataDxfId="1"/>
-    <tableColumn id="11" name="Get URL Ready?"/>
-    <tableColumn id="5" name="Edit Entity"/>
-    <tableColumn id="16" name="Edit  URL Ready"/>
-    <tableColumn id="17" name="Get Usage URL"/>
-    <tableColumn id="18" name="Get Usage Ready"/>
-    <tableColumn id="9" name="Delete URL"/>
-    <tableColumn id="13" name="Delete Ready?"/>
-    <tableColumn id="8" name="Save/Update URL"/>
-    <tableColumn id="7" name="Save/Update Ready?"/>
-    <tableColumn id="10" name="View PDF?"/>
-    <tableColumn id="12" name="All APIs ready?"/>
-    <tableColumn id="6" name="Testing?" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Link Description"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Page Id" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Autocomplete pageIds" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Get Prod URL - parent grid"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Get Prod URL - child grid2" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Get URL Ready?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Edit Entity"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Edit  URL Ready"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Get Usage URL"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Get Usage Ready"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Delete URL"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Delete Ready?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Save/Update URL"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Save/Update Ready?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="View PDF?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="All APIs ready?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Testing?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2183,7 +2189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2216,9 +2222,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2251,6 +2274,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2426,34 +2466,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="52.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="45.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.5546875" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="52.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="45.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -2503,7 +2543,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -2511,7 +2551,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
@@ -2559,7 +2599,7 @@
       </c>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2647,7 @@
       </c>
       <c r="P4" s="40"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>52</v>
       </c>
@@ -2655,7 +2695,7 @@
       </c>
       <c r="P5" s="40"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>53</v>
       </c>
@@ -2703,7 +2743,7 @@
       </c>
       <c r="P6" s="40"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2750,7 +2790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
@@ -2798,7 +2838,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>5</v>
       </c>
@@ -2846,7 +2886,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>56</v>
       </c>
@@ -2894,7 +2934,7 @@
       </c>
       <c r="P10" s="41"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -2941,7 +2981,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -2952,7 +2992,7 @@
         <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2966,26 +3006,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>95</v>
       </c>
@@ -3011,7 +3051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="86.4">
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>80</v>
       </c>
@@ -3035,7 +3075,7 @@
       </c>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>89</v>
       </c>
@@ -3057,7 +3097,7 @@
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="115.2">
+    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>83</v>
       </c>
@@ -3081,7 +3121,7 @@
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>85</v>
       </c>
@@ -3101,7 +3141,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>85</v>
       </c>
@@ -3125,7 +3165,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="43.2">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>99</v>
       </c>
@@ -3151,7 +3191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>87</v>
       </c>
@@ -3175,7 +3215,7 @@
       </c>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>83</v>
       </c>
@@ -3197,7 +3237,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" ht="28.8">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>99</v>
       </c>
@@ -3221,7 +3261,7 @@
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>105</v>
       </c>
@@ -3245,7 +3285,7 @@
       </c>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>99</v>
       </c>
@@ -3265,7 +3305,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" ht="28.8">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>110</v>
       </c>
@@ -3287,7 +3327,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -3309,7 +3349,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="43.2">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>124</v>
       </c>
@@ -3331,7 +3371,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="28.8">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>123</v>
       </c>
@@ -3353,7 +3393,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>120</v>
       </c>
@@ -3375,7 +3415,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8" ht="100.8">
+    <row r="18" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>80</v>
       </c>
@@ -3397,7 +3437,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
@@ -3421,7 +3461,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>85</v>
       </c>
@@ -3443,7 +3483,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>131</v>
       </c>
@@ -3463,7 +3503,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="43.2">
+    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>83</v>
       </c>
@@ -3485,7 +3525,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>80</v>
       </c>
@@ -3517,25 +3557,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -3558,7 +3598,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -3579,7 +3619,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -3600,7 +3640,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3621,7 +3661,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -3642,7 +3682,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -3663,7 +3703,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
@@ -3684,7 +3724,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>21</v>
       </c>
@@ -3705,7 +3745,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -3726,7 +3766,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3747,7 +3787,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -3768,7 +3808,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3789,7 +3829,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -3810,7 +3850,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -3831,7 +3871,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -3852,7 +3892,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -3873,7 +3913,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
@@ -3894,7 +3934,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -3915,7 +3955,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -3936,7 +3976,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -3957,7 +3997,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -3978,7 +4018,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -3999,7 +4039,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -4020,7 +4060,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>1</v>
       </c>
@@ -4041,7 +4081,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -4062,7 +4102,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -4083,7 +4123,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -4104,7 +4144,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>8</v>
       </c>
@@ -4125,7 +4165,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -4146,7 +4186,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -4167,7 +4207,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -4188,7 +4228,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -4209,7 +4249,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -4230,7 +4270,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>23</v>
       </c>
@@ -4251,7 +4291,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -4274,8 +4314,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes"/>
-    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority"/>
+    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4286,35 +4326,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="36.21875" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="40.5546875" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.88671875" customWidth="1"/>
-    <col min="14" max="14" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="40.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.85546875" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -4325,10 +4365,10 @@
         <v>179</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>72</v>
@@ -4367,12 +4407,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -4381,13 +4421,13 @@
         <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
         <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" t="s">
         <v>66</v>
@@ -4399,24 +4439,24 @@
         <v>71</v>
       </c>
       <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
         <v>206</v>
       </c>
-      <c r="L2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" t="s">
-        <v>207</v>
-      </c>
       <c r="N2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -4425,7 +4465,7 @@
         <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
         <v>66</v>
@@ -4443,71 +4483,71 @@
         <v>71</v>
       </c>
       <c r="K3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L3" t="s">
         <v>66</v>
       </c>
       <c r="M3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" t="s">
-        <v>216</v>
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>

--- a/TF_UI_API_Intg_status.xlsx
+++ b/TF_UI_API_Intg_status.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646F3932-2504-485F-A9E6-51E49E9A0B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="3120" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4152" yWindow="3120" windowWidth="21600" windowHeight="11376"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -718,8 +712,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,7 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1001,7 +995,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -2054,93 +2047,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
-  <autoFilter ref="A1:P13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A1:P13"/>
+  <sortState ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Link Description"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Page Id" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Autocomplete pageIds" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Get Prod URL" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Get URL Ready?"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Edit Entity"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Edit  URL Ready"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Get Usage URL"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Get Usage Ready"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delete URL"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Delete Ready?"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Save/Update URL"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Save/Update Ready?"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="View PDF?"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="All APIs ready?"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Testing?" dataDxfId="32"/>
+    <tableColumn id="1" name="Link Description"/>
+    <tableColumn id="2" name="Page Id" dataDxfId="35"/>
+    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="34"/>
+    <tableColumn id="4" name="Get Prod URL" dataDxfId="33"/>
+    <tableColumn id="11" name="Get URL Ready?"/>
+    <tableColumn id="5" name="Edit Entity"/>
+    <tableColumn id="16" name="Edit  URL Ready"/>
+    <tableColumn id="17" name="Get Usage URL"/>
+    <tableColumn id="18" name="Get Usage Ready"/>
+    <tableColumn id="9" name="Delete URL"/>
+    <tableColumn id="13" name="Delete Ready?"/>
+    <tableColumn id="8" name="Save/Update URL"/>
+    <tableColumn id="7" name="Save/Update Ready?"/>
+    <tableColumn id="10" name="View PDF?"/>
+    <tableColumn id="12" name="All APIs ready?"/>
+    <tableColumn id="6" name="Testing?" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A1:H23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A1:H23"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Field Description" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Prod URL" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Is Autocomplete?" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Dev Done?" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="In Sync With UI?" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Screens" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Dev By" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Note" dataDxfId="19"/>
+    <tableColumn id="1" name="Field Description" dataDxfId="26"/>
+    <tableColumn id="2" name="Prod URL" dataDxfId="25"/>
+    <tableColumn id="3" name="Is Autocomplete?" dataDxfId="24"/>
+    <tableColumn id="4" name="Dev Done?" dataDxfId="23"/>
+    <tableColumn id="5" name="In Sync With UI?" dataDxfId="22"/>
+    <tableColumn id="6" name="Screens" dataDxfId="21"/>
+    <tableColumn id="7" name="Dev By" dataDxfId="20"/>
+    <tableColumn id="9" name="Note" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:G35"/>
+  <sortState ref="A2:G35">
     <sortCondition descending="1" ref="F1:F35"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Link Description" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Filter" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Prod URL" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Dev Done?" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="UI Sync/Ingt" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Testing?" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dev By" dataDxfId="9"/>
+    <tableColumn id="1" name="Link Description" dataDxfId="15"/>
+    <tableColumn id="3" name="Filter" dataDxfId="14"/>
+    <tableColumn id="4" name="Prod URL" dataDxfId="13"/>
+    <tableColumn id="6" name="Dev Done?" dataDxfId="12"/>
+    <tableColumn id="2" name="UI Sync/Ingt" dataDxfId="11"/>
+    <tableColumn id="7" name="Testing?" dataDxfId="10"/>
+    <tableColumn id="5" name="Dev By" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:Q14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:Q14"/>
+  <sortState ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Link Description"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Page Id" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Autocomplete pageIds" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Get Prod URL - parent grid"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Get Prod URL - child grid2" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Get URL Ready?"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Edit Entity"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Edit  URL Ready"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Get Usage URL"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Get Usage Ready"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Delete URL"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Delete Ready?"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Save/Update URL"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Save/Update Ready?"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="View PDF?"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="All APIs ready?"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Testing?" dataDxfId="0"/>
+    <tableColumn id="1" name="Link Description"/>
+    <tableColumn id="2" name="Page Id" dataDxfId="3"/>
+    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="2"/>
+    <tableColumn id="14" name="Get Prod URL - parent grid"/>
+    <tableColumn id="4" name="Get Prod URL - child grid2" dataDxfId="1"/>
+    <tableColumn id="11" name="Get URL Ready?"/>
+    <tableColumn id="5" name="Edit Entity"/>
+    <tableColumn id="16" name="Edit  URL Ready"/>
+    <tableColumn id="17" name="Get Usage URL"/>
+    <tableColumn id="18" name="Get Usage Ready"/>
+    <tableColumn id="9" name="Delete URL"/>
+    <tableColumn id="13" name="Delete Ready?"/>
+    <tableColumn id="8" name="Save/Update URL"/>
+    <tableColumn id="7" name="Save/Update Ready?"/>
+    <tableColumn id="10" name="View PDF?"/>
+    <tableColumn id="12" name="All APIs ready?"/>
+    <tableColumn id="6" name="Testing?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2189,7 +2182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2222,26 +2215,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2274,23 +2250,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2466,34 +2425,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="52.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="45.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.5703125" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="52.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="45.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.5546875" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -2543,7 +2502,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -2551,7 +2510,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
@@ -2599,7 +2558,7 @@
       </c>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
@@ -2647,7 +2606,7 @@
       </c>
       <c r="P4" s="40"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="40" t="s">
         <v>52</v>
       </c>
@@ -2695,7 +2654,7 @@
       </c>
       <c r="P5" s="40"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="40" t="s">
         <v>53</v>
       </c>
@@ -2743,7 +2702,7 @@
       </c>
       <c r="P6" s="40"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2790,7 +2749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
@@ -2838,7 +2797,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="40" t="s">
         <v>5</v>
       </c>
@@ -2886,55 +2845,55 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:16">
+      <c r="A10" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="41" t="s">
+      <c r="E10" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="41" t="s">
+      <c r="G10" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="K10" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="41" t="s">
+      <c r="K10" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="M10" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="41" t="s">
+      <c r="M10" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" s="41"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="40"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -2981,7 +2940,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -3006,26 +2965,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="12" t="s">
         <v>95</v>
       </c>
@@ -3051,7 +3010,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="86.4">
       <c r="A2" s="17" t="s">
         <v>80</v>
       </c>
@@ -3075,7 +3034,7 @@
       </c>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="17" t="s">
         <v>89</v>
       </c>
@@ -3097,7 +3056,7 @@
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="115.2">
       <c r="A4" s="17" t="s">
         <v>83</v>
       </c>
@@ -3121,7 +3080,7 @@
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="17" t="s">
         <v>85</v>
       </c>
@@ -3141,7 +3100,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="17" t="s">
         <v>85</v>
       </c>
@@ -3165,7 +3124,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="43.2">
       <c r="A7" s="17" t="s">
         <v>99</v>
       </c>
@@ -3191,7 +3150,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="22" t="s">
         <v>87</v>
       </c>
@@ -3215,7 +3174,7 @@
       </c>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="26" t="s">
         <v>83</v>
       </c>
@@ -3237,7 +3196,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.8">
       <c r="A10" s="22" t="s">
         <v>99</v>
       </c>
@@ -3261,7 +3220,7 @@
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="26" t="s">
         <v>105</v>
       </c>
@@ -3285,7 +3244,7 @@
       </c>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="26" t="s">
         <v>99</v>
       </c>
@@ -3305,7 +3264,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.8">
       <c r="A13" s="26" t="s">
         <v>110</v>
       </c>
@@ -3327,7 +3286,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -3349,7 +3308,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="43.2">
       <c r="A15" s="22" t="s">
         <v>124</v>
       </c>
@@ -3371,7 +3330,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.8">
       <c r="A16" s="26" t="s">
         <v>123</v>
       </c>
@@ -3393,7 +3352,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="26" t="s">
         <v>120</v>
       </c>
@@ -3415,7 +3374,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="100.8">
       <c r="A18" s="26" t="s">
         <v>80</v>
       </c>
@@ -3437,7 +3396,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
@@ -3461,7 +3420,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="22" t="s">
         <v>85</v>
       </c>
@@ -3483,7 +3442,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="26" t="s">
         <v>131</v>
       </c>
@@ -3503,7 +3462,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="43.2">
       <c r="A22" s="26" t="s">
         <v>83</v>
       </c>
@@ -3525,7 +3484,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="26" t="s">
         <v>80</v>
       </c>
@@ -3557,25 +3516,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -3598,7 +3557,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -3619,7 +3578,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -3640,7 +3599,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3661,7 +3620,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -3682,7 +3641,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -3703,7 +3662,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
@@ -3724,7 +3683,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="35" t="s">
         <v>21</v>
       </c>
@@ -3745,7 +3704,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -3766,7 +3725,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3787,7 +3746,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -3808,7 +3767,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3829,7 +3788,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -3850,7 +3809,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -3871,7 +3830,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -3892,7 +3851,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -3913,7 +3872,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
@@ -3934,7 +3893,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -3955,7 +3914,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -3976,7 +3935,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -3997,7 +3956,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -4018,7 +3977,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -4039,7 +3998,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -4060,7 +4019,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="33" t="s">
         <v>1</v>
       </c>
@@ -4081,7 +4040,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -4102,7 +4061,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -4123,7 +4082,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -4144,7 +4103,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="29" t="s">
         <v>8</v>
       </c>
@@ -4165,7 +4124,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -4186,7 +4145,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -4207,7 +4166,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -4228,7 +4187,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -4249,7 +4208,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -4270,7 +4229,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="29" t="s">
         <v>23</v>
       </c>
@@ -4291,7 +4250,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -4314,8 +4273,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes"/>
+    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4326,35 +4285,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.85546875" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="40.5546875" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.88671875" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -4407,7 +4366,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -4451,7 +4410,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -4495,64 +4454,64 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="42"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -4564,7 +4523,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="43"/>
+      <c r="Q14" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TF_UI_API_Intg_status.xlsx
+++ b/TF_UI_API_Intg_status.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F714DD-11AE-40F1-A4C3-B9021A4DF5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4152" yWindow="3120" windowWidth="21600" windowHeight="11376"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="220">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -706,14 +712,23 @@
     <t>Group Overrides</t>
   </si>
   <si>
-    <t>/UserProfileService/getPermissionListtt</t>
+    <t>/UserProfileService/getPermissionList</t>
+  </si>
+  <si>
+    <t>/UserProfileService/defaultPermission</t>
+  </si>
+  <si>
+    <t>/UserProfileService/refreshPermission</t>
+  </si>
+  <si>
+    <t>/UserProfileService/savePermission</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2047,93 +2062,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
-  <autoFilter ref="A1:P13"/>
-  <sortState ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A1:P13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="Link Description"/>
-    <tableColumn id="2" name="Page Id" dataDxfId="35"/>
-    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="34"/>
-    <tableColumn id="4" name="Get Prod URL" dataDxfId="33"/>
-    <tableColumn id="11" name="Get URL Ready?"/>
-    <tableColumn id="5" name="Edit Entity"/>
-    <tableColumn id="16" name="Edit  URL Ready"/>
-    <tableColumn id="17" name="Get Usage URL"/>
-    <tableColumn id="18" name="Get Usage Ready"/>
-    <tableColumn id="9" name="Delete URL"/>
-    <tableColumn id="13" name="Delete Ready?"/>
-    <tableColumn id="8" name="Save/Update URL"/>
-    <tableColumn id="7" name="Save/Update Ready?"/>
-    <tableColumn id="10" name="View PDF?"/>
-    <tableColumn id="12" name="All APIs ready?"/>
-    <tableColumn id="6" name="Testing?" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Link Description"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Page Id" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Autocomplete pageIds" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Get Prod URL" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Get URL Ready?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Edit Entity"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Edit  URL Ready"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Get Usage URL"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Get Usage Ready"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delete URL"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Delete Ready?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Save/Update URL"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Save/Update Ready?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="View PDF?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="All APIs ready?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Testing?" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A1:H23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A1:H23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Field Description" dataDxfId="26"/>
-    <tableColumn id="2" name="Prod URL" dataDxfId="25"/>
-    <tableColumn id="3" name="Is Autocomplete?" dataDxfId="24"/>
-    <tableColumn id="4" name="Dev Done?" dataDxfId="23"/>
-    <tableColumn id="5" name="In Sync With UI?" dataDxfId="22"/>
-    <tableColumn id="6" name="Screens" dataDxfId="21"/>
-    <tableColumn id="7" name="Dev By" dataDxfId="20"/>
-    <tableColumn id="9" name="Note" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Field Description" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Prod URL" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Is Autocomplete?" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Dev Done?" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="In Sync With UI?" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Screens" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Dev By" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Note" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:G35"/>
-  <sortState ref="A2:G35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
     <sortCondition descending="1" ref="F1:F35"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Link Description" dataDxfId="15"/>
-    <tableColumn id="3" name="Filter" dataDxfId="14"/>
-    <tableColumn id="4" name="Prod URL" dataDxfId="13"/>
-    <tableColumn id="6" name="Dev Done?" dataDxfId="12"/>
-    <tableColumn id="2" name="UI Sync/Ingt" dataDxfId="11"/>
-    <tableColumn id="7" name="Testing?" dataDxfId="10"/>
-    <tableColumn id="5" name="Dev By" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Link Description" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Filter" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Prod URL" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Dev Done?" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="UI Sync/Ingt" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Testing?" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dev By" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:Q14"/>
-  <sortState ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:Q14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Link Description"/>
-    <tableColumn id="2" name="Page Id" dataDxfId="3"/>
-    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="2"/>
-    <tableColumn id="14" name="Get Prod URL - parent grid"/>
-    <tableColumn id="4" name="Get Prod URL - child grid2" dataDxfId="1"/>
-    <tableColumn id="11" name="Get URL Ready?"/>
-    <tableColumn id="5" name="Edit Entity"/>
-    <tableColumn id="16" name="Edit  URL Ready"/>
-    <tableColumn id="17" name="Get Usage URL"/>
-    <tableColumn id="18" name="Get Usage Ready"/>
-    <tableColumn id="9" name="Delete URL"/>
-    <tableColumn id="13" name="Delete Ready?"/>
-    <tableColumn id="8" name="Save/Update URL"/>
-    <tableColumn id="7" name="Save/Update Ready?"/>
-    <tableColumn id="10" name="View PDF?"/>
-    <tableColumn id="12" name="All APIs ready?"/>
-    <tableColumn id="6" name="Testing?" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Link Description"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Page Id" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Autocomplete pageIds" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Get Prod URL - parent grid"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Get Prod URL - child grid2" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Get URL Ready?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Edit Entity"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Edit  URL Ready"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Get Usage URL"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Get Usage Ready"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Delete URL"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Delete Ready?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Save/Update URL"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Save/Update Ready?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="View PDF?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="All APIs ready?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Testing?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2182,7 +2197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2215,9 +2230,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2250,6 +2282,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2425,34 +2474,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="52.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="45.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.5546875" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="52.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="45.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -2502,7 +2551,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -2510,7 +2559,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
@@ -2558,7 +2607,7 @@
       </c>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
@@ -2606,7 +2655,7 @@
       </c>
       <c r="P4" s="40"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>52</v>
       </c>
@@ -2654,7 +2703,7 @@
       </c>
       <c r="P5" s="40"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>53</v>
       </c>
@@ -2702,7 +2751,7 @@
       </c>
       <c r="P6" s="40"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2749,7 +2798,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
@@ -2797,7 +2846,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>5</v>
       </c>
@@ -2845,7 +2894,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>56</v>
       </c>
@@ -2893,7 +2942,7 @@
       </c>
       <c r="P10" s="40"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -2940,7 +2989,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -2952,6 +3001,33 @@
       </c>
       <c r="D12" t="s">
         <v>216</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" t="s">
+        <v>219</v>
+      </c>
+      <c r="M12" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2965,26 +3041,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>95</v>
       </c>
@@ -3010,7 +3086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="86.4">
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>80</v>
       </c>
@@ -3034,7 +3110,7 @@
       </c>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>89</v>
       </c>
@@ -3056,7 +3132,7 @@
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="115.2">
+    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>83</v>
       </c>
@@ -3080,7 +3156,7 @@
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>85</v>
       </c>
@@ -3100,7 +3176,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>85</v>
       </c>
@@ -3124,7 +3200,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="43.2">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>99</v>
       </c>
@@ -3150,7 +3226,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>87</v>
       </c>
@@ -3174,7 +3250,7 @@
       </c>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>83</v>
       </c>
@@ -3196,7 +3272,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" ht="28.8">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>99</v>
       </c>
@@ -3220,7 +3296,7 @@
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>105</v>
       </c>
@@ -3244,7 +3320,7 @@
       </c>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>99</v>
       </c>
@@ -3264,7 +3340,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" ht="28.8">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>110</v>
       </c>
@@ -3286,7 +3362,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -3308,7 +3384,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="43.2">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>124</v>
       </c>
@@ -3330,7 +3406,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="28.8">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>123</v>
       </c>
@@ -3352,7 +3428,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>120</v>
       </c>
@@ -3374,7 +3450,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8" ht="100.8">
+    <row r="18" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>80</v>
       </c>
@@ -3396,7 +3472,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
@@ -3420,7 +3496,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>85</v>
       </c>
@@ -3442,7 +3518,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>131</v>
       </c>
@@ -3462,7 +3538,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="43.2">
+    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>83</v>
       </c>
@@ -3484,7 +3560,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>80</v>
       </c>
@@ -3516,25 +3592,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -3557,7 +3633,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -3578,7 +3654,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -3599,7 +3675,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3620,7 +3696,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -3641,7 +3717,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -3662,7 +3738,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
@@ -3683,7 +3759,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>21</v>
       </c>
@@ -3704,7 +3780,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -3725,7 +3801,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3746,7 +3822,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -3767,7 +3843,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3788,7 +3864,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -3809,7 +3885,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -3830,7 +3906,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -3851,7 +3927,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -3872,7 +3948,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
@@ -3893,7 +3969,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -3914,7 +3990,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -3935,7 +4011,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -3956,7 +4032,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -3977,7 +4053,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -3998,7 +4074,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -4019,7 +4095,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>1</v>
       </c>
@@ -4040,7 +4116,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -4061,7 +4137,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -4082,7 +4158,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -4103,7 +4179,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>8</v>
       </c>
@@ -4124,7 +4200,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -4145,7 +4221,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -4166,7 +4242,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -4187,7 +4263,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -4208,7 +4284,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -4229,7 +4305,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>23</v>
       </c>
@@ -4250,7 +4326,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -4273,8 +4349,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes"/>
-    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority"/>
+    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4285,35 +4361,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="36.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="40.5546875" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.88671875" customWidth="1"/>
-    <col min="14" max="14" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="40.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.85546875" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -4366,7 +4442,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -4410,7 +4486,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -4454,57 +4530,57 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>215</v>
       </c>

--- a/TF_UI_API_Intg_status.xlsx
+++ b/TF_UI_API_Intg_status.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F714DD-11AE-40F1-A4C3-B9021A4DF5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
     <sheet name="UDQ Filters" sheetId="3" r:id="rId2"/>
     <sheet name="UDQ" sheetId="1" r:id="rId3"/>
     <sheet name="Type 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="227">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -723,12 +718,33 @@
   <si>
     <t>/UserProfileService/savePermission</t>
   </si>
+  <si>
+    <t>Screen/Area</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Postman Test Location</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,7 +794,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,6 +823,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -934,7 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1012,6 +1034,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2062,93 +2085,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
-  <autoFilter ref="A1:P13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A1:P13"/>
+  <sortState ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Link Description"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Page Id" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Autocomplete pageIds" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Get Prod URL" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Get URL Ready?"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Edit Entity"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Edit  URL Ready"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Get Usage URL"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Get Usage Ready"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delete URL"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Delete Ready?"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Save/Update URL"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Save/Update Ready?"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="View PDF?"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="All APIs ready?"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Testing?" dataDxfId="32"/>
+    <tableColumn id="1" name="Link Description"/>
+    <tableColumn id="2" name="Page Id" dataDxfId="35"/>
+    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="34"/>
+    <tableColumn id="4" name="Get Prod URL" dataDxfId="33"/>
+    <tableColumn id="11" name="Get URL Ready?"/>
+    <tableColumn id="5" name="Edit Entity"/>
+    <tableColumn id="16" name="Edit  URL Ready"/>
+    <tableColumn id="17" name="Get Usage URL"/>
+    <tableColumn id="18" name="Get Usage Ready"/>
+    <tableColumn id="9" name="Delete URL"/>
+    <tableColumn id="13" name="Delete Ready?"/>
+    <tableColumn id="8" name="Save/Update URL"/>
+    <tableColumn id="7" name="Save/Update Ready?"/>
+    <tableColumn id="10" name="View PDF?"/>
+    <tableColumn id="12" name="All APIs ready?"/>
+    <tableColumn id="6" name="Testing?" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A1:H23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A1:H23"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Field Description" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Prod URL" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Is Autocomplete?" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Dev Done?" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="In Sync With UI?" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Screens" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Dev By" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Note" dataDxfId="19"/>
+    <tableColumn id="1" name="Field Description" dataDxfId="26"/>
+    <tableColumn id="2" name="Prod URL" dataDxfId="25"/>
+    <tableColumn id="3" name="Is Autocomplete?" dataDxfId="24"/>
+    <tableColumn id="4" name="Dev Done?" dataDxfId="23"/>
+    <tableColumn id="5" name="In Sync With UI?" dataDxfId="22"/>
+    <tableColumn id="6" name="Screens" dataDxfId="21"/>
+    <tableColumn id="7" name="Dev By" dataDxfId="20"/>
+    <tableColumn id="9" name="Note" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:G35"/>
+  <sortState ref="A2:G35">
     <sortCondition descending="1" ref="F1:F35"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Link Description" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Filter" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Prod URL" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Dev Done?" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="UI Sync/Ingt" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Testing?" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dev By" dataDxfId="9"/>
+    <tableColumn id="1" name="Link Description" dataDxfId="15"/>
+    <tableColumn id="3" name="Filter" dataDxfId="14"/>
+    <tableColumn id="4" name="Prod URL" dataDxfId="13"/>
+    <tableColumn id="6" name="Dev Done?" dataDxfId="12"/>
+    <tableColumn id="2" name="UI Sync/Ingt" dataDxfId="11"/>
+    <tableColumn id="7" name="Testing?" dataDxfId="10"/>
+    <tableColumn id="5" name="Dev By" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:Q14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:Q14"/>
+  <sortState ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Link Description"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Page Id" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Autocomplete pageIds" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Get Prod URL - parent grid"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Get Prod URL - child grid2" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Get URL Ready?"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Edit Entity"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Edit  URL Ready"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Get Usage URL"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Get Usage Ready"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Delete URL"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Delete Ready?"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Save/Update URL"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Save/Update Ready?"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="View PDF?"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="All APIs ready?"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Testing?" dataDxfId="0"/>
+    <tableColumn id="1" name="Link Description"/>
+    <tableColumn id="2" name="Page Id" dataDxfId="3"/>
+    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="2"/>
+    <tableColumn id="14" name="Get Prod URL - parent grid"/>
+    <tableColumn id="4" name="Get Prod URL - child grid2" dataDxfId="1"/>
+    <tableColumn id="11" name="Get URL Ready?"/>
+    <tableColumn id="5" name="Edit Entity"/>
+    <tableColumn id="16" name="Edit  URL Ready"/>
+    <tableColumn id="17" name="Get Usage URL"/>
+    <tableColumn id="18" name="Get Usage Ready"/>
+    <tableColumn id="9" name="Delete URL"/>
+    <tableColumn id="13" name="Delete Ready?"/>
+    <tableColumn id="8" name="Save/Update URL"/>
+    <tableColumn id="7" name="Save/Update Ready?"/>
+    <tableColumn id="10" name="View PDF?"/>
+    <tableColumn id="12" name="All APIs ready?"/>
+    <tableColumn id="6" name="Testing?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2197,7 +2220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2230,26 +2253,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2282,23 +2288,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2474,34 +2463,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="52.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="45.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.5703125" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="52.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="45.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.5546875" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -2551,7 +2540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -2559,7 +2548,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
@@ -2607,7 +2596,7 @@
       </c>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
@@ -2655,7 +2644,7 @@
       </c>
       <c r="P4" s="40"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="40" t="s">
         <v>52</v>
       </c>
@@ -2703,7 +2692,7 @@
       </c>
       <c r="P5" s="40"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="40" t="s">
         <v>53</v>
       </c>
@@ -2751,7 +2740,7 @@
       </c>
       <c r="P6" s="40"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2798,7 +2787,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
@@ -2846,7 +2835,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="40" t="s">
         <v>5</v>
       </c>
@@ -2894,7 +2883,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="40" t="s">
         <v>56</v>
       </c>
@@ -2942,7 +2931,7 @@
       </c>
       <c r="P10" s="40"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -2989,7 +2978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -3041,26 +3030,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="12" t="s">
         <v>95</v>
       </c>
@@ -3086,7 +3075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="86.4">
       <c r="A2" s="17" t="s">
         <v>80</v>
       </c>
@@ -3110,7 +3099,7 @@
       </c>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="17" t="s">
         <v>89</v>
       </c>
@@ -3132,7 +3121,7 @@
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="115.2">
       <c r="A4" s="17" t="s">
         <v>83</v>
       </c>
@@ -3156,7 +3145,7 @@
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="17" t="s">
         <v>85</v>
       </c>
@@ -3176,7 +3165,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="17" t="s">
         <v>85</v>
       </c>
@@ -3200,7 +3189,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="43.2">
       <c r="A7" s="17" t="s">
         <v>99</v>
       </c>
@@ -3226,7 +3215,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="22" t="s">
         <v>87</v>
       </c>
@@ -3250,7 +3239,7 @@
       </c>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="26" t="s">
         <v>83</v>
       </c>
@@ -3272,7 +3261,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.8">
       <c r="A10" s="22" t="s">
         <v>99</v>
       </c>
@@ -3296,7 +3285,7 @@
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="26" t="s">
         <v>105</v>
       </c>
@@ -3320,7 +3309,7 @@
       </c>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="26" t="s">
         <v>99</v>
       </c>
@@ -3340,7 +3329,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.8">
       <c r="A13" s="26" t="s">
         <v>110</v>
       </c>
@@ -3362,7 +3351,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -3384,7 +3373,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="43.2">
       <c r="A15" s="22" t="s">
         <v>124</v>
       </c>
@@ -3406,7 +3395,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.8">
       <c r="A16" s="26" t="s">
         <v>123</v>
       </c>
@@ -3428,7 +3417,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="26" t="s">
         <v>120</v>
       </c>
@@ -3450,7 +3439,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="100.8">
       <c r="A18" s="26" t="s">
         <v>80</v>
       </c>
@@ -3472,7 +3461,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
@@ -3496,7 +3485,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="22" t="s">
         <v>85</v>
       </c>
@@ -3518,7 +3507,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="26" t="s">
         <v>131</v>
       </c>
@@ -3538,7 +3527,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="43.2">
       <c r="A22" s="26" t="s">
         <v>83</v>
       </c>
@@ -3560,7 +3549,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="26" t="s">
         <v>80</v>
       </c>
@@ -3592,25 +3581,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -3633,7 +3622,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -3654,7 +3643,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -3675,7 +3664,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3696,7 +3685,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -3717,7 +3706,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -3738,7 +3727,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
@@ -3759,7 +3748,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="35" t="s">
         <v>21</v>
       </c>
@@ -3780,7 +3769,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -3801,7 +3790,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3822,7 +3811,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -3843,7 +3832,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3864,7 +3853,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -3885,7 +3874,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -3906,7 +3895,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -3927,7 +3916,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -3948,7 +3937,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
@@ -3969,7 +3958,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -3990,7 +3979,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -4011,7 +4000,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -4032,7 +4021,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -4053,7 +4042,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -4074,7 +4063,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -4095,7 +4084,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="33" t="s">
         <v>1</v>
       </c>
@@ -4116,7 +4105,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -4137,7 +4126,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -4158,7 +4147,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,7 +4168,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="29" t="s">
         <v>8</v>
       </c>
@@ -4200,7 +4189,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -4221,7 +4210,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -4242,7 +4231,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -4263,7 +4252,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -4284,7 +4273,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -4305,7 +4294,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="29" t="s">
         <v>23</v>
       </c>
@@ -4326,7 +4315,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -4349,8 +4338,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes"/>
+    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4361,35 +4350,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.85546875" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="40.5546875" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.88671875" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -4442,7 +4431,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -4486,7 +4475,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -4530,57 +4519,57 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -4608,4 +4597,4947 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H410"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="10" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="B2" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1"/>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1"/>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1"/>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1"/>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1"/>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1"/>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1"/>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1"/>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1"/>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1"/>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+      <c r="H303" s="1"/>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
+      <c r="H304" s="1"/>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="1"/>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+      <c r="H306" s="1"/>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+      <c r="H307" s="1"/>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+      <c r="H308" s="1"/>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1"/>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+      <c r="H310" s="1"/>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+      <c r="H311" s="1"/>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+      <c r="H312" s="1"/>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+      <c r="H313" s="1"/>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+      <c r="H314" s="1"/>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="1"/>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+      <c r="G316" s="1"/>
+      <c r="H316" s="1"/>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+      <c r="G317" s="1"/>
+      <c r="H317" s="1"/>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+      <c r="G318" s="1"/>
+      <c r="H318" s="1"/>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
+      <c r="G319" s="1"/>
+      <c r="H319" s="1"/>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+      <c r="H320" s="1"/>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+      <c r="G321" s="1"/>
+      <c r="H321" s="1"/>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+      <c r="F322" s="1"/>
+      <c r="G322" s="1"/>
+      <c r="H322" s="1"/>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+      <c r="F323" s="1"/>
+      <c r="G323" s="1"/>
+      <c r="H323" s="1"/>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
+      <c r="G324" s="1"/>
+      <c r="H324" s="1"/>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+      <c r="H325" s="1"/>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
+      <c r="G326" s="1"/>
+      <c r="H326" s="1"/>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
+      <c r="G327" s="1"/>
+      <c r="H327" s="1"/>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+      <c r="G328" s="1"/>
+      <c r="H328" s="1"/>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+      <c r="G329" s="1"/>
+      <c r="H329" s="1"/>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+      <c r="G330" s="1"/>
+      <c r="H330" s="1"/>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+      <c r="G331" s="1"/>
+      <c r="H331" s="1"/>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
+      <c r="G332" s="1"/>
+      <c r="H332" s="1"/>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+      <c r="G333" s="1"/>
+      <c r="H333" s="1"/>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
+      <c r="H334" s="1"/>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+      <c r="H335" s="1"/>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+      <c r="H336" s="1"/>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+      <c r="H337" s="1"/>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+      <c r="G338" s="1"/>
+      <c r="H338" s="1"/>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="1"/>
+      <c r="G339" s="1"/>
+      <c r="H339" s="1"/>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+      <c r="H340" s="1"/>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+      <c r="H341" s="1"/>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+      <c r="G342" s="1"/>
+      <c r="H342" s="1"/>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+      <c r="H343" s="1"/>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+      <c r="H344" s="1"/>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+      <c r="H345" s="1"/>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+      <c r="H346" s="1"/>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
+      <c r="G347" s="1"/>
+      <c r="H347" s="1"/>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
+      <c r="H348" s="1"/>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+      <c r="H349" s="1"/>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+      <c r="H350" s="1"/>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+      <c r="H351" s="1"/>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
+      <c r="H352" s="1"/>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+      <c r="H353" s="1"/>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
+      <c r="H354" s="1"/>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+      <c r="G355" s="1"/>
+      <c r="H355" s="1"/>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
+      <c r="G356" s="1"/>
+      <c r="H356" s="1"/>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+      <c r="H357" s="1"/>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
+      <c r="H358" s="1"/>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="1"/>
+      <c r="F359" s="1"/>
+      <c r="G359" s="1"/>
+      <c r="H359" s="1"/>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="1"/>
+      <c r="F360" s="1"/>
+      <c r="G360" s="1"/>
+      <c r="H360" s="1"/>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1"/>
+      <c r="F361" s="1"/>
+      <c r="G361" s="1"/>
+      <c r="H361" s="1"/>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
+      <c r="F362" s="1"/>
+      <c r="G362" s="1"/>
+      <c r="H362" s="1"/>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="1"/>
+      <c r="F363" s="1"/>
+      <c r="G363" s="1"/>
+      <c r="H363" s="1"/>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="1"/>
+      <c r="F364" s="1"/>
+      <c r="G364" s="1"/>
+      <c r="H364" s="1"/>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="1"/>
+      <c r="F365" s="1"/>
+      <c r="G365" s="1"/>
+      <c r="H365" s="1"/>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+      <c r="E366" s="1"/>
+      <c r="F366" s="1"/>
+      <c r="G366" s="1"/>
+      <c r="H366" s="1"/>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="1"/>
+      <c r="F367" s="1"/>
+      <c r="G367" s="1"/>
+      <c r="H367" s="1"/>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="1"/>
+      <c r="F368" s="1"/>
+      <c r="G368" s="1"/>
+      <c r="H368" s="1"/>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="1"/>
+      <c r="F369" s="1"/>
+      <c r="G369" s="1"/>
+      <c r="H369" s="1"/>
+    </row>
+    <row r="370" spans="1:8">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+      <c r="E370" s="1"/>
+      <c r="F370" s="1"/>
+      <c r="G370" s="1"/>
+      <c r="H370" s="1"/>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
+      <c r="E371" s="1"/>
+      <c r="F371" s="1"/>
+      <c r="G371" s="1"/>
+      <c r="H371" s="1"/>
+    </row>
+    <row r="372" spans="1:8">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+      <c r="E372" s="1"/>
+      <c r="F372" s="1"/>
+      <c r="G372" s="1"/>
+      <c r="H372" s="1"/>
+    </row>
+    <row r="373" spans="1:8">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="1"/>
+      <c r="F373" s="1"/>
+      <c r="G373" s="1"/>
+      <c r="H373" s="1"/>
+    </row>
+    <row r="374" spans="1:8">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="1"/>
+      <c r="F374" s="1"/>
+      <c r="G374" s="1"/>
+      <c r="H374" s="1"/>
+    </row>
+    <row r="375" spans="1:8">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="1"/>
+      <c r="F375" s="1"/>
+      <c r="G375" s="1"/>
+      <c r="H375" s="1"/>
+    </row>
+    <row r="376" spans="1:8">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+      <c r="D376" s="1"/>
+      <c r="E376" s="1"/>
+      <c r="F376" s="1"/>
+      <c r="G376" s="1"/>
+      <c r="H376" s="1"/>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="1"/>
+      <c r="F377" s="1"/>
+      <c r="G377" s="1"/>
+      <c r="H377" s="1"/>
+    </row>
+    <row r="378" spans="1:8">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="1"/>
+      <c r="E378" s="1"/>
+      <c r="F378" s="1"/>
+      <c r="G378" s="1"/>
+      <c r="H378" s="1"/>
+    </row>
+    <row r="379" spans="1:8">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="1"/>
+      <c r="F379" s="1"/>
+      <c r="G379" s="1"/>
+      <c r="H379" s="1"/>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="1"/>
+      <c r="F380" s="1"/>
+      <c r="G380" s="1"/>
+      <c r="H380" s="1"/>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="1"/>
+      <c r="F381" s="1"/>
+      <c r="G381" s="1"/>
+      <c r="H381" s="1"/>
+    </row>
+    <row r="382" spans="1:8">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
+      <c r="E382" s="1"/>
+      <c r="F382" s="1"/>
+      <c r="G382" s="1"/>
+      <c r="H382" s="1"/>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
+      <c r="E383" s="1"/>
+      <c r="F383" s="1"/>
+      <c r="G383" s="1"/>
+      <c r="H383" s="1"/>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="1"/>
+      <c r="E384" s="1"/>
+      <c r="F384" s="1"/>
+      <c r="G384" s="1"/>
+      <c r="H384" s="1"/>
+    </row>
+    <row r="385" spans="1:8">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="1"/>
+      <c r="F385" s="1"/>
+      <c r="G385" s="1"/>
+      <c r="H385" s="1"/>
+    </row>
+    <row r="386" spans="1:8">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
+      <c r="E386" s="1"/>
+      <c r="F386" s="1"/>
+      <c r="G386" s="1"/>
+      <c r="H386" s="1"/>
+    </row>
+    <row r="387" spans="1:8">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="1"/>
+      <c r="E387" s="1"/>
+      <c r="F387" s="1"/>
+      <c r="G387" s="1"/>
+      <c r="H387" s="1"/>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1"/>
+      <c r="E388" s="1"/>
+      <c r="F388" s="1"/>
+      <c r="G388" s="1"/>
+      <c r="H388" s="1"/>
+    </row>
+    <row r="389" spans="1:8">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="1"/>
+      <c r="E389" s="1"/>
+      <c r="F389" s="1"/>
+      <c r="G389" s="1"/>
+      <c r="H389" s="1"/>
+    </row>
+    <row r="390" spans="1:8">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="1"/>
+      <c r="F390" s="1"/>
+      <c r="G390" s="1"/>
+      <c r="H390" s="1"/>
+    </row>
+    <row r="391" spans="1:8">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="1"/>
+      <c r="E391" s="1"/>
+      <c r="F391" s="1"/>
+      <c r="G391" s="1"/>
+      <c r="H391" s="1"/>
+    </row>
+    <row r="392" spans="1:8">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+      <c r="D392" s="1"/>
+      <c r="E392" s="1"/>
+      <c r="F392" s="1"/>
+      <c r="G392" s="1"/>
+      <c r="H392" s="1"/>
+    </row>
+    <row r="393" spans="1:8">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="1"/>
+      <c r="E393" s="1"/>
+      <c r="F393" s="1"/>
+      <c r="G393" s="1"/>
+      <c r="H393" s="1"/>
+    </row>
+    <row r="394" spans="1:8">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="1"/>
+      <c r="F394" s="1"/>
+      <c r="G394" s="1"/>
+      <c r="H394" s="1"/>
+    </row>
+    <row r="395" spans="1:8">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
+      <c r="E395" s="1"/>
+      <c r="F395" s="1"/>
+      <c r="G395" s="1"/>
+      <c r="H395" s="1"/>
+    </row>
+    <row r="396" spans="1:8">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="E396" s="1"/>
+      <c r="F396" s="1"/>
+      <c r="G396" s="1"/>
+      <c r="H396" s="1"/>
+    </row>
+    <row r="397" spans="1:8">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
+      <c r="E397" s="1"/>
+      <c r="F397" s="1"/>
+      <c r="G397" s="1"/>
+      <c r="H397" s="1"/>
+    </row>
+    <row r="398" spans="1:8">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
+      <c r="E398" s="1"/>
+      <c r="F398" s="1"/>
+      <c r="G398" s="1"/>
+      <c r="H398" s="1"/>
+    </row>
+    <row r="399" spans="1:8">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
+      <c r="E399" s="1"/>
+      <c r="F399" s="1"/>
+      <c r="G399" s="1"/>
+      <c r="H399" s="1"/>
+    </row>
+    <row r="400" spans="1:8">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+      <c r="D400" s="1"/>
+      <c r="E400" s="1"/>
+      <c r="F400" s="1"/>
+      <c r="G400" s="1"/>
+      <c r="H400" s="1"/>
+    </row>
+    <row r="401" spans="1:8">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="1"/>
+      <c r="E401" s="1"/>
+      <c r="F401" s="1"/>
+      <c r="G401" s="1"/>
+      <c r="H401" s="1"/>
+    </row>
+    <row r="402" spans="1:8">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+      <c r="D402" s="1"/>
+      <c r="E402" s="1"/>
+      <c r="F402" s="1"/>
+      <c r="G402" s="1"/>
+      <c r="H402" s="1"/>
+    </row>
+    <row r="403" spans="1:8">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
+      <c r="E403" s="1"/>
+      <c r="F403" s="1"/>
+      <c r="G403" s="1"/>
+      <c r="H403" s="1"/>
+    </row>
+    <row r="404" spans="1:8">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
+      <c r="D404" s="1"/>
+      <c r="E404" s="1"/>
+      <c r="F404" s="1"/>
+      <c r="G404" s="1"/>
+      <c r="H404" s="1"/>
+    </row>
+    <row r="405" spans="1:8">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+      <c r="D405" s="1"/>
+      <c r="E405" s="1"/>
+      <c r="F405" s="1"/>
+      <c r="G405" s="1"/>
+      <c r="H405" s="1"/>
+    </row>
+    <row r="406" spans="1:8">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+      <c r="D406" s="1"/>
+      <c r="E406" s="1"/>
+      <c r="F406" s="1"/>
+      <c r="G406" s="1"/>
+      <c r="H406" s="1"/>
+    </row>
+    <row r="407" spans="1:8">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+      <c r="D407" s="1"/>
+      <c r="E407" s="1"/>
+      <c r="F407" s="1"/>
+      <c r="G407" s="1"/>
+      <c r="H407" s="1"/>
+    </row>
+    <row r="408" spans="1:8">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="1"/>
+      <c r="E408" s="1"/>
+      <c r="F408" s="1"/>
+      <c r="G408" s="1"/>
+      <c r="H408" s="1"/>
+    </row>
+    <row r="409" spans="1:8">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="1"/>
+      <c r="E409" s="1"/>
+      <c r="F409" s="1"/>
+      <c r="G409" s="1"/>
+      <c r="H409" s="1"/>
+    </row>
+    <row r="410" spans="1:8">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="1"/>
+      <c r="E410" s="1"/>
+      <c r="F410" s="1"/>
+      <c r="G410" s="1"/>
+      <c r="H410" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>